--- a/meta/en/17-8-1.xlsx
+++ b/meta/en/17-8-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -103,21 +103,6 @@
     <t>17.8.1. Proportion of individuals using the Internet</t>
   </si>
   <si>
-    <t>The National Statistical Committee(Household Statistics Division)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y. I. Kalymbetova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y.kalymbetova@gmail.com </t>
-  </si>
-  <si>
-    <t>(0312) 32-46-55</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>Under this indicator, proportion of individuals using the Internet is defined as the proportion of individuals who used the Internet from any location in the last three months to the total number of respondents (individuals over 15).</t>
   </si>
   <si>
@@ -143,18 +128,41 @@
   <si>
     <t>The Kyrgyz Republic SDG National Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io
 Link to the global metadata platform: https://unstats.un.org/sdgs/metadata/?Text=&amp;Goal=17&amp;Target=</t>
+  </si>
+  <si>
+    <t>National Statistical Committee of the Kyrgyz Republic (Department of Household Statistics)</t>
+  </si>
+  <si>
+    <t>Kalymbetova Yryskan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
+  </si>
+  <si>
+    <t>(0312) 32 46 55</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,26 +229,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -552,7 +564,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +584,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -603,7 +615,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -611,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -619,7 +631,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -627,7 +639,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -635,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -649,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -657,7 +669,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -665,7 +677,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +691,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -687,7 +699,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -731,7 +743,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -745,7 +757,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
